--- a/aws.xlsx
+++ b/aws.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imredobos\learning-and-development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07F26C-D07B-4346-B8FA-94F3927F6909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="INTRO" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="IAM_EC2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ELB_ASG" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="EBS_EFS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="RDS_AURORA_ELASTICACHE" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="ROUTE53" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="S3_INTRO" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CLI_SDK_IAM" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="ADV_S3_ATHENA" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="CLOUDFRONT" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="VPC" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="SQS_SNS_KINESIS" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="MONITORING" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="SECU_ENCRY" sheetId="14" r:id="rId17"/>
+    <sheet name="INTRO" sheetId="1" r:id="rId1"/>
+    <sheet name="IAM_EC2" sheetId="2" r:id="rId2"/>
+    <sheet name="ELB_ASG" sheetId="3" r:id="rId3"/>
+    <sheet name="EBS_EFS" sheetId="4" r:id="rId4"/>
+    <sheet name="RDS_AURORA_ELASTICACHE" sheetId="5" r:id="rId5"/>
+    <sheet name="ROUTE53" sheetId="6" r:id="rId6"/>
+    <sheet name="S3_INTRO" sheetId="7" r:id="rId7"/>
+    <sheet name="CLI_SDK_IAM" sheetId="8" r:id="rId8"/>
+    <sheet name="ADV_S3_ATHENA" sheetId="9" r:id="rId9"/>
+    <sheet name="CLOUDFRONT" sheetId="10" r:id="rId10"/>
+    <sheet name="VPC" sheetId="11" r:id="rId11"/>
+    <sheet name="SQS_SNS_KINESIS" sheetId="12" r:id="rId12"/>
+    <sheet name="MONITORING" sheetId="13" r:id="rId13"/>
+    <sheet name="SECU_ENCRY" sheetId="14" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
   <si>
     <t>Solutions Architecture</t>
   </si>
@@ -441,42 +450,55 @@
   </si>
   <si>
     <t>Shared Responsibility Model</t>
+  </si>
+  <si>
+    <t>DONE?</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>megnezve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="14.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF505763"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -486,7 +508,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -496,111 +518,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -790,47 +750,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.14"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="66.14"/>
-    <col customWidth="1" min="2" max="2" width="56.14"/>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -838,7 +807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
@@ -846,7 +815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -854,19 +823,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -874,7 +843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
@@ -882,58 +851,60 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="61.0"/>
-    <col customWidth="1" min="2" max="2" width="59.57"/>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -941,13 +912,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
@@ -955,7 +926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
@@ -963,7 +934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
@@ -971,19 +942,19 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>72</v>
       </c>
@@ -991,7 +962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
@@ -999,7 +970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -1007,7 +978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>76</v>
       </c>
@@ -1015,7 +986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>77</v>
       </c>
@@ -1023,7 +994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
@@ -1031,13 +1002,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
@@ -1045,7 +1016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>84</v>
       </c>
@@ -1053,7 +1024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -1061,7 +1032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
@@ -1069,32 +1040,33 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.86"/>
-    <col customWidth="1" min="2" max="2" width="55.57"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -1110,13 +1082,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -1124,13 +1096,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>93</v>
       </c>
@@ -1138,7 +1110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>94</v>
       </c>
@@ -1146,19 +1118,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>97</v>
       </c>
@@ -1166,61 +1138,61 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1228,7 +1200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1236,7 +1208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>110</v>
       </c>
@@ -1244,7 +1216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>112</v>
       </c>
@@ -1252,32 +1224,33 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.43"/>
-    <col customWidth="1" min="2" max="2" width="49.43"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1285,7 +1258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>114</v>
       </c>
@@ -1293,7 +1266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1301,7 +1274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1309,7 +1282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -1317,37 +1290,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
@@ -1355,7 +1328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
@@ -1363,7 +1336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
@@ -1371,7 +1344,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>126</v>
       </c>
@@ -1379,7 +1352,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>128</v>
       </c>
@@ -1387,7 +1360,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>130</v>
       </c>
@@ -1395,7 +1368,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>132</v>
       </c>
@@ -1403,7 +1376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
@@ -1411,7 +1384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
@@ -1419,54 +1392,63 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.57"/>
-    <col customWidth="1" min="2" max="2" width="48.0"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1530,7 +1512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1562,7 +1544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1570,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1594,7 +1576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1610,13 +1592,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1624,15 +1606,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1648,43 +1630,43 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -1692,74 +1674,77 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A4"/>
-    <hyperlink r:id="rId2" ref="A6"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.29"/>
-    <col customWidth="1" min="2" max="2" width="42.0"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1775,7 +1760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1783,7 +1768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +1784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1815,7 +1800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1823,7 +1808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1831,19 +1816,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -1851,102 +1836,106 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.29"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>